--- a/構成事例一覧_分析①_テンプレート.xlsx
+++ b/構成事例一覧_分析①_テンプレート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mridcs-my.sharepoint.com/personal/u031330_dcs-is_in_dcs_co_jp/Documents/10.Office/40.教育・研修/社外研究会/三菱CC研究会_2021/3.成果物/データ分析基盤の構成検討/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u031330\OneDrive - 三菱総研ＤＣＳ株式会社\10.Office\40.教育・研修\社外研究会\三菱CC研究会_2021\3.成果物\データ分析基盤の構成検討\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="13_ncr:1_{E4DE7ED4-C417-4534-8307-677E46E06781}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{966F29FA-31DD-47C1-BCB2-CF0EBA41EC15}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0569D39-13D4-49E4-99DC-2FD0CE04610F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4A36A56C-AF85-416F-9D8A-7C208E1A6CF0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A36A56C-AF85-416F-9D8A-7C208E1A6CF0}"/>
   </bookViews>
   <sheets>
     <sheet name="事例一覧" sheetId="3" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="304">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -1000,19 +998,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データとビジネスロジックが一体化し、それぞれがレガシーな環境上で構築されていたため、結果的にデータのサイロ化が進んでいた</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>既存の環境も構築を担当したベンダーがそれぞれ管理、運用していたため、データが必要な状況でも「自分たちで気軽にデータを取り出すことができない」などの弊害も生じていた</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>セブンイレブンジャパン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新型コロナ渦のような不確実性の高い状況では、データを活用した判断が欠かせない。このような状況に対し、本部のアドバイザーがデータを元にいち早く把握して対応する」ために、そのベースとなるデータやアナリティクスを提供する基盤として構築</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1067,11 +1053,6 @@
     <rPh sb="41" eb="44">
       <t>ヨウイカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://japan.zdnet.com/article/35159798/
-https://it.impress.co.jp/articles/-/20392</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1628,10 +1609,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>セブン－イレブンの店舗のPOSデータをはじめとした、汎用性や即時性があり、ビジネスに有用なデータをクラウド基盤上に一元管理する。POSデータはGoogle Cloudのストリーム分析ソリューションを活用して、閉域網経由で収集。収集したデータは、生データのまま、まずはデータレイクに蓄積。これをデータ分析用に加工・整形してデータウェアハウス（DWH）に格納し、最終的に個々のデータ分析ニーズに応じて構築したデータマートに保存する。また、BIツールやスプレッドシートを使ってデータの可視化や分析ができるよう、データウェアハウス上でデータマートが準備する。これにより、現時点でも店頭における購買や在庫のデータは、ほぼリアルタイムで把握できるようにする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「サービスの拡張性」「セキュリティ」「オープン性」の3点を重視し、Google Cloudを選択。特にオープン性については「過去のわれわれの『ベンダー依存』の体質、体制から脱却したいという思いから、マルチベンダーで、ものによってはアジャイル開発の体制も構築できるようにした。</t>
     <rPh sb="49" eb="50">
       <t>トク</t>
@@ -1755,16 +1732,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データ収集元</t>
-    <rPh sb="3" eb="5">
-      <t>シュウシュウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>モト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>収集機能</t>
     <rPh sb="0" eb="2">
       <t>シュウシュウ</t>
@@ -1805,16 +1772,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データ活用先</t>
-    <rPh sb="3" eb="5">
-      <t>カツヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>運用管理機能</t>
     <rPh sb="0" eb="2">
       <t>ウンヨウ</t>
@@ -2451,6 +2408,215 @@
   </si>
   <si>
     <t>Amazon Redshift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収集した人</t>
+    <rPh sb="0" eb="2">
+      <t>シュウシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分析①の担当</t>
+    <rPh sb="0" eb="2">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大橋</t>
+    <rPh sb="0" eb="2">
+      <t>オオハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://cloud.google.com/blog/ja/topics/customers/seven-central-on-google-cloud-platform</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>新型コロナ渦のような不確実性の高い状況では、データを活用した判断が欠かせない。このような状況に対し、本部のアドバイザーが</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データを元にいち早く把握</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>して対応する」ために、そのベースとなるデータやアナリティクスを提供する基盤として構築</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジネスに有用なデータをクラウド基盤上に一元管理。POSデータはGoogle Cloudのストリーム分析ソリューションを活用して、閉域網経由で収集。収集したデータは、生データのまま、まずはデータレイクに蓄積。これをデータ分析用に加工・整形してデータウェアハウス（DWH）に格納し、最終的に個々のデータ分析ニーズに応じて構築したデータマートに保存する。また、BIツールやスプレッドシートを使ってデータの可視化や分析ができるよう、データウェアハウス上でデータマートが準備する。これにより、現時点でも店頭における購買や在庫のデータは、ほぼリアルタイムで把握できるようにする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://dcross.impress.co.jp/docs/usecase/001792.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>データとビジネスロジックが一体化し、それぞれがレガシーな環境上で構築されていたため、結果的に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データのサイロ化が進んでいた</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.ryutsuu.biz/it/m091641.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>既存の環境も構築を担当したベンダーがそれぞれ管理、運用していたため、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データが必要な状況でも「自分たちで気軽にデータを取り出すことができない」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>などの弊害も生じていた</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://atmarkit.itmedia.co.jp/ait/articles/2009/23/news027.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ収集</t>
+    <rPh sb="3" eb="5">
+      <t>シュウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ活用</t>
+    <rPh sb="3" eb="5">
+      <t>カツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収集元</t>
+    <rPh sb="0" eb="2">
+      <t>シュウシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収集データ</t>
+    <rPh sb="0" eb="2">
+      <t>シュウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>活用先</t>
+    <rPh sb="0" eb="2">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>活用内容</t>
+    <rPh sb="0" eb="2">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乗車券、定期券、回数券などの収入データ</t>
+  </si>
+  <si>
+    <t>企業との契約輸送の収入データ</t>
+  </si>
+  <si>
+    <t>バスの整備履歴</t>
+  </si>
+  <si>
+    <t>運行実績</t>
+  </si>
+  <si>
+    <t>停留所ごとの乗降客数</t>
+  </si>
+  <si>
+    <t>イベント開催</t>
+  </si>
+  <si>
+    <t>人口データの推移</t>
+  </si>
+  <si>
+    <t>沿線の天候</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収入変化の分析</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運行計画を策定</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2458,7 +2624,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2520,6 +2686,23 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Yu Gothic UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Yu Gothic UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2565,7 +2748,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -3064,6 +3247,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3073,7 +3354,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3185,15 +3466,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3209,9 +3484,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3320,6 +3592,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3361,6 +3648,51 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3384,13 +3716,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>95114</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>83718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2435114</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>49046</xdr:rowOff>
@@ -3450,13 +3782,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>115646</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>86430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2455646</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>248253</xdr:rowOff>
@@ -3504,13 +3836,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>79360</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>78357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2419360</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>309533</xdr:rowOff>
@@ -3559,13 +3891,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>82387</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>75829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2422387</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>132639</xdr:rowOff>
@@ -3613,13 +3945,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>110343</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>89440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2450343</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>485415</xdr:rowOff>
@@ -3668,13 +4000,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>100341</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>79352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2440341</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>150300</xdr:rowOff>
@@ -3723,7 +4055,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>108393</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>58679</xdr:rowOff>
@@ -3784,7 +4116,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>117181</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>75558</xdr:rowOff>
@@ -3845,7 +4177,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>98612</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
@@ -3906,13 +4238,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>107649</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>87938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2447649</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>82234</xdr:rowOff>
@@ -3972,16 +4304,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>110837</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>110836</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2450837</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>383855</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>43196</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4038,13 +4370,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>96982</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>83128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2436982</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>333495</xdr:rowOff>
@@ -4104,13 +4436,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>110838</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>83127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2450838</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>276302</xdr:rowOff>
@@ -4170,13 +4502,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>109846</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>62345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2452816</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>746720</xdr:rowOff>
@@ -4236,13 +4568,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>74083</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>72575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2456722</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>89940</xdr:rowOff>
@@ -4293,13 +4625,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>55418</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>133191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2498788</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>10901</xdr:rowOff>
@@ -4343,13 +4675,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>88548</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>110836</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2482224</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>53688</xdr:rowOff>
@@ -4393,13 +4725,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>124692</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2521529</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>67834</xdr:rowOff>
@@ -4459,13 +4791,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>96983</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>96982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2493819</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>1071835</xdr:rowOff>
@@ -4509,13 +4841,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>83127</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2452255</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>144366</xdr:rowOff>
@@ -4559,13 +4891,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>86740</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>80302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2466109</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>132019</xdr:rowOff>
@@ -4609,13 +4941,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>55418</xdr:colOff>
       <xdr:row>96</xdr:row>
       <xdr:rowOff>50004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2452255</xdr:colOff>
       <xdr:row>102</xdr:row>
       <xdr:rowOff>166253</xdr:rowOff>
@@ -4659,489 +4991,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>81260</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>28302</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2344943</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>292525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="図 23" descr="相鉄ビジネスサービス株式会社 移行後のシステム概要図">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4754410D-8263-4CE2-BBE2-E50F861817F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7510760" y="28969062"/>
-          <a:ext cx="2263683" cy="1102423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>74083</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>72575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2460532</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>968145</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824BED34-2794-48A1-AA88-4A1554922B03}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="email">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7503583" y="29516255"/>
-          <a:ext cx="2386449" cy="1230850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="50000"/>
-              <a:lumOff val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>37797</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>50649</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2282974</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>568171</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="図 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8507B684-6171-482F-8810-47BE102E4615}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="email">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7467297" y="30835449"/>
-          <a:ext cx="2245177" cy="1188082"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="50000"/>
-              <a:lumOff val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5374823</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>20409</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2390438</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>977910</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3C0946-94E1-436B-8D45-9CC55D9C9C15}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="email">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7432223" y="31308129"/>
-          <a:ext cx="2387715" cy="1125141"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="50000"/>
-              <a:lumOff val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>27216</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>34018</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2559092</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>182772</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9686A7C-1093-4BFE-9668-13F3E959163B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="email">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7456716" y="33066718"/>
-          <a:ext cx="2531876" cy="1322234"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="50000"/>
-              <a:lumOff val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>17213</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>51643</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2340205</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>105075</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B368385D-3F10-4B04-9018-5A53C1751BD9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="email">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7446713" y="33754903"/>
-          <a:ext cx="2322992" cy="1394552"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="50000"/>
-              <a:lumOff val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>80683</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1903418" cy="1096255"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="図 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCB6C945-C4CE-4987-963D-5D8A494FD43A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="email">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7510183" y="34251004"/>
-          <a:ext cx="1903418" cy="1096255"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>62754</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>53786</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2277737" cy="1012482"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30" descr="移行完了後のシステム概要図">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F55D854-CF1A-4BEB-9989-A2CC740B6169}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="email">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7492254" y="35098166"/>
-          <a:ext cx="2277737" cy="1012482"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>81644</xdr:colOff>
       <xdr:row>104</xdr:row>
       <xdr:rowOff>115425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2469720</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>128451</xdr:rowOff>
@@ -5201,13 +5057,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>62445</xdr:colOff>
       <xdr:row>110</xdr:row>
       <xdr:rowOff>99785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2470991</xdr:colOff>
       <xdr:row>110</xdr:row>
       <xdr:rowOff>1914070</xdr:rowOff>
@@ -5267,13 +5123,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>119934</xdr:colOff>
       <xdr:row>121</xdr:row>
       <xdr:rowOff>22910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2385785</xdr:colOff>
       <xdr:row>131</xdr:row>
       <xdr:rowOff>17707</xdr:rowOff>
@@ -5333,13 +5189,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>137972</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>103200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2494643</xdr:colOff>
       <xdr:row>119</xdr:row>
       <xdr:rowOff>147313</xdr:rowOff>
@@ -5697,2595 +5553,2729 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3674BA6-5454-4C47-9B8A-0610F02E75D0}">
-  <dimension ref="A1:N137"/>
+  <dimension ref="A1:O137"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.69921875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="70.69921875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="33.296875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="31.3984375" style="3" customWidth="1"/>
-    <col min="9" max="10" width="21.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.796875" style="2"/>
-    <col min="12" max="12" width="21.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="5.8984375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="21.5" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="8.796875" style="2"/>
+    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="70.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33.296875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.3984375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="21.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.796875" style="2"/>
+    <col min="13" max="13" width="21.5" style="3" customWidth="1"/>
+    <col min="14" max="14" width="5.8984375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="21.5" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52" t="s">
+      <c r="B1" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="E1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="F1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="G1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="H1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="I1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="J1" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="K1" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="95" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-    </row>
-    <row r="2" spans="1:14" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="A2" s="56">
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+    </row>
+    <row r="2" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="A2" s="53">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="J2" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="82" t="s">
+      <c r="K2" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="54"/>
+      <c r="M2" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86" t="s">
+      <c r="N2" s="88"/>
+      <c r="O2" s="88" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="58"/>
-      <c r="E3" s="3" t="s">
+    <row r="3" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="55"/>
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="G3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="87"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-    </row>
-    <row r="4" spans="1:14" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="58"/>
-      <c r="E4" s="3" t="s">
+      <c r="J3" s="89"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+    </row>
+    <row r="4" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="55"/>
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="58"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="60"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" s="55"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="57"/>
-      <c r="L5" s="22"/>
+      <c r="L5" s="54"/>
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
-    </row>
-    <row r="6" spans="1:14" ht="52.8" x14ac:dyDescent="0.45">
-      <c r="A6" s="56">
+      <c r="O5" s="22"/>
+    </row>
+    <row r="6" spans="1:15" ht="52.8" x14ac:dyDescent="0.45">
+      <c r="A6" s="53">
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="86" t="s">
+      <c r="J6" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="82" t="s">
+      <c r="K6" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="K6" s="57"/>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="54"/>
+      <c r="M6" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86" t="s">
+      <c r="N6" s="88"/>
+      <c r="O6" s="88" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="58"/>
-      <c r="E7" s="3" t="s">
+    <row r="7" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="55"/>
+      <c r="F7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-    </row>
-    <row r="8" spans="1:14" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="A8" s="61"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+    </row>
+    <row r="8" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="A8" s="58"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="24"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="24"/>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="G8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-    </row>
-    <row r="9" spans="1:14" ht="52.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="56">
+      <c r="H8" s="24"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+    </row>
+    <row r="9" spans="1:15" ht="52.8" x14ac:dyDescent="0.45">
+      <c r="A9" s="53">
         <v>3</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="E9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="86" t="s">
+      <c r="J9" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="J9" s="82" t="s">
+      <c r="K9" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="54"/>
+      <c r="M9" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86" t="s">
+      <c r="N9" s="88"/>
+      <c r="O9" s="88" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A10" s="58"/>
-      <c r="E10" s="3" t="s">
+    <row r="10" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A10" s="55"/>
+      <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="87"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-    </row>
-    <row r="11" spans="1:14" ht="52.8" x14ac:dyDescent="0.45">
-      <c r="A11" s="61"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+    </row>
+    <row r="11" spans="1:15" ht="52.8" x14ac:dyDescent="0.45">
+      <c r="A11" s="58"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="24"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="24"/>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="G11" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="88"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-    </row>
-    <row r="12" spans="1:14" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="A12" s="56">
+      <c r="J11" s="90"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+    </row>
+    <row r="12" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="A12" s="53">
         <v>4</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4"/>
+      <c r="I12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="86" t="s">
+      <c r="J12" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="82" t="s">
+      <c r="K12" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="K12" s="57"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-    </row>
-    <row r="13" spans="1:14" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="58"/>
-      <c r="E13" s="3" t="s">
+      <c r="L12" s="54"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+    </row>
+    <row r="13" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A13" s="55"/>
+      <c r="F13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="87"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="58"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-    </row>
-    <row r="15" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="61"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14" s="55"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+    </row>
+    <row r="15" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="58"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="24"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-    </row>
-    <row r="16" spans="1:14" ht="66" x14ac:dyDescent="0.45">
-      <c r="A16" s="56">
+      <c r="H15" s="24"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+    </row>
+    <row r="16" spans="1:15" ht="66" x14ac:dyDescent="0.45">
+      <c r="A16" s="53">
         <v>5</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C16" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4"/>
+      <c r="I16" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="I16" s="86" t="s">
+      <c r="J16" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="J16" s="82" t="s">
+      <c r="K16" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="57"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-    </row>
-    <row r="17" spans="1:14" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="A17" s="58"/>
-      <c r="D17" s="3" t="s">
-        <v>167</v>
-      </c>
+      <c r="L16" s="54"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="88"/>
+    </row>
+    <row r="17" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="A17" s="55"/>
       <c r="E17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="I17" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="87"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-    </row>
-    <row r="18" spans="1:14" ht="52.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="58"/>
-      <c r="E18" s="3" t="s">
+      <c r="J17" s="89"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+    </row>
+    <row r="18" spans="1:15" ht="52.8" x14ac:dyDescent="0.45">
+      <c r="A18" s="55"/>
+      <c r="F18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-    </row>
-    <row r="19" spans="1:14" ht="66" x14ac:dyDescent="0.45">
-      <c r="A19" s="58"/>
-      <c r="E19" s="3" t="s">
+      <c r="H18" s="17"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+    </row>
+    <row r="19" spans="1:15" ht="66" x14ac:dyDescent="0.45">
+      <c r="A19" s="55"/>
+      <c r="F19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="I19" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I19" s="87"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-    </row>
-    <row r="20" spans="1:14" ht="52.8" x14ac:dyDescent="0.45">
-      <c r="A20" s="56">
+      <c r="J19" s="89"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+    </row>
+    <row r="20" spans="1:15" ht="52.8" x14ac:dyDescent="0.45">
+      <c r="A20" s="53">
         <v>6</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C20" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="E20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4"/>
+      <c r="I20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="86" t="s">
+      <c r="J20" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="J20" s="82" t="s">
+      <c r="K20" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="K20" s="57"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-    </row>
-    <row r="21" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="58"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="3" t="s">
+      <c r="L20" s="54"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+    </row>
+    <row r="21" spans="1:15" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="55"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="93" t="s">
+      <c r="G21" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-    </row>
-    <row r="22" spans="1:14" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="A22" s="61"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+    </row>
+    <row r="22" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="A22" s="58"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="24"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="24"/>
+      <c r="F22" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="94"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-    </row>
-    <row r="23" spans="1:14" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="56">
+      <c r="G22" s="96"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+    </row>
+    <row r="23" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A23" s="53">
         <v>7</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C23" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="9"/>
+      <c r="I23" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I23" s="86" t="s">
+      <c r="J23" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="J23" s="82" t="s">
-        <v>220</v>
-      </c>
-      <c r="K23" s="57"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-    </row>
-    <row r="24" spans="1:14" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A24" s="58"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3" t="s">
+      <c r="K23" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="L23" s="54"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+    </row>
+    <row r="24" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A24" s="55"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-    </row>
-    <row r="25" spans="1:14" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="A25" s="58"/>
-      <c r="C25" s="2"/>
-      <c r="E25" s="3" t="s">
+      <c r="H24" s="2"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+    </row>
+    <row r="25" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="A25" s="55"/>
+      <c r="D25" s="2"/>
+      <c r="F25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A26" s="58"/>
-      <c r="C26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="60"/>
+      <c r="H25" s="2"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A26" s="55"/>
+      <c r="D26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="57"/>
-      <c r="L26" s="22"/>
+      <c r="L26" s="54"/>
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A27" s="61"/>
+      <c r="O26" s="22"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A27" s="58"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="24"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="54"/>
       <c r="M27" s="23"/>
       <c r="N27" s="23"/>
-    </row>
-    <row r="28" spans="1:14" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="A28" s="58">
+      <c r="O27" s="23"/>
+    </row>
+    <row r="28" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="A28" s="55">
         <v>8</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C28" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="I28" s="87" t="s">
+      <c r="H28" s="2"/>
+      <c r="J28" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="83" t="s">
+      <c r="K28" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="K28" s="57"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-    </row>
-    <row r="29" spans="1:14" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="A29" s="58"/>
-      <c r="C29" s="2"/>
-      <c r="E29" s="2" t="s">
+      <c r="L28" s="54"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+    </row>
+    <row r="29" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="A29" s="55"/>
+      <c r="D29" s="2"/>
+      <c r="F29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="2"/>
+      <c r="I29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I29" s="87"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-    </row>
-    <row r="30" spans="1:14" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="A30" s="58"/>
-      <c r="C30" s="2"/>
-      <c r="E30" s="2" t="s">
+      <c r="J29" s="89"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
+    </row>
+    <row r="30" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="A30" s="55"/>
+      <c r="D30" s="2"/>
+      <c r="F30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-    </row>
-    <row r="31" spans="1:14" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A31" s="58"/>
-      <c r="C31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3" t="s">
+      <c r="H30" s="2"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+    </row>
+    <row r="31" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A31" s="55"/>
+      <c r="D31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="2"/>
+      <c r="I31" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I31" s="87"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="87"/>
-    </row>
-    <row r="32" spans="1:14" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="A32" s="61"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="89"/>
+    </row>
+    <row r="32" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="A32" s="58"/>
       <c r="B32" s="13"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="24" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="88"/>
-      <c r="M32" s="88"/>
-      <c r="N32" s="88"/>
-    </row>
-    <row r="33" spans="1:14" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="A33" s="56">
+      <c r="H32" s="8"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="90"/>
+    </row>
+    <row r="33" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="A33" s="53">
         <v>9</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C33" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="9"/>
+      <c r="I33" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I33" s="86" t="s">
+      <c r="J33" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="J33" s="82" t="s">
+      <c r="K33" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="K33" s="57"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-    </row>
-    <row r="34" spans="1:14" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="A34" s="58"/>
-      <c r="C34" s="2"/>
-      <c r="E34" s="3" t="s">
+      <c r="L33" s="54"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+    </row>
+    <row r="34" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="A34" s="55"/>
+      <c r="D34" s="2"/>
+      <c r="F34" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-    </row>
-    <row r="35" spans="1:14" ht="52.8" x14ac:dyDescent="0.45">
-      <c r="A35" s="58"/>
-      <c r="C35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3" t="s">
+      <c r="H34" s="2"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="89"/>
+    </row>
+    <row r="35" spans="1:15" ht="52.8" x14ac:dyDescent="0.45">
+      <c r="A35" s="55"/>
+      <c r="D35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="2"/>
+      <c r="I35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I35" s="87"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-    </row>
-    <row r="36" spans="1:14" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A36" s="61"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="89"/>
+      <c r="N35" s="89"/>
+      <c r="O35" s="89"/>
+    </row>
+    <row r="36" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A36" s="58"/>
       <c r="B36" s="13"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="24"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="24"/>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="24"/>
+      <c r="G36" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="88"/>
-      <c r="N36" s="88"/>
-    </row>
-    <row r="37" spans="1:14" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="A37" s="56">
+      <c r="H36" s="8"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="90"/>
+      <c r="O36" s="90"/>
+    </row>
+    <row r="37" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="A37" s="53">
         <v>10</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C37" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="9"/>
+      <c r="I37" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I37" s="86" t="s">
+      <c r="J37" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="J37" s="82" t="s">
+      <c r="K37" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="K37" s="57"/>
-      <c r="L37" s="86"/>
-      <c r="M37" s="86"/>
-      <c r="N37" s="86"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A38" s="58"/>
-      <c r="C38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A39" s="58"/>
-      <c r="C39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A40" s="57"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="88"/>
+      <c r="N37" s="88"/>
+      <c r="O37" s="88"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A38" s="55"/>
+      <c r="D38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="89"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A39" s="55"/>
+      <c r="D39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="89"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="89"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A40" s="54"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A41" s="57"/>
+      <c r="D40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="89"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A41" s="54"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A42" s="63"/>
+      <c r="D41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="89"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A42" s="60"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-    </row>
-    <row r="43" spans="1:14" ht="79.2" x14ac:dyDescent="0.45">
-      <c r="A43" s="56">
+      <c r="D42" s="8"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="90"/>
+    </row>
+    <row r="43" spans="1:15" ht="66" x14ac:dyDescent="0.45">
+      <c r="A43" s="53">
         <v>11</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C43" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H43" s="9"/>
+      <c r="I43" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J43" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="K43" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="L43" s="54"/>
+      <c r="M43" s="88"/>
+      <c r="N43" s="88"/>
+      <c r="O43" s="88"/>
+    </row>
+    <row r="44" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="A44" s="55"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="F44" s="82" t="s">
+        <v>283</v>
+      </c>
+      <c r="G44" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I43" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="J43" s="82" t="s">
-        <v>136</v>
-      </c>
-      <c r="K43" s="57"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="86"/>
-      <c r="N43" s="86"/>
-    </row>
-    <row r="44" spans="1:14" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="A44" s="58"/>
-      <c r="C44" s="2"/>
-      <c r="E44" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I44" s="87"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="87"/>
-      <c r="M44" s="87"/>
-      <c r="N44" s="87"/>
-    </row>
-    <row r="45" spans="1:14" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="A45" s="58"/>
-      <c r="C45" s="2"/>
-      <c r="E45" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="87"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A46" s="63"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="89"/>
+    </row>
+    <row r="45" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="A45" s="55"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="82" t="s">
+        <v>284</v>
+      </c>
+      <c r="F45" s="82" t="s">
+        <v>285</v>
+      </c>
+      <c r="G45" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="89"/>
+      <c r="O45" s="89"/>
+    </row>
+    <row r="46" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A46" s="60"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-    </row>
-    <row r="47" spans="1:14" ht="82.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="56">
+      <c r="D46" s="8"/>
+      <c r="E46" s="83" t="s">
+        <v>286</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="90"/>
+      <c r="N46" s="90"/>
+      <c r="O46" s="90"/>
+    </row>
+    <row r="47" spans="1:15" ht="82.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="53">
         <v>12</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>140</v>
+        <v>196</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="G47" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J47" s="88"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="88"/>
+    </row>
+    <row r="48" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="A48" s="55"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I47" s="86"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="86"/>
-      <c r="M47" s="86"/>
-      <c r="N47" s="86"/>
-    </row>
-    <row r="48" spans="1:14" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="A48" s="58"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J48" s="89"/>
+      <c r="K48" s="85"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="89"/>
+      <c r="O48" s="89"/>
+    </row>
+    <row r="49" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="A49" s="55"/>
+      <c r="D49" s="2"/>
+      <c r="G49" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J49" s="89"/>
+      <c r="K49" s="85"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="89"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A50" s="55"/>
+      <c r="D50" s="2"/>
+      <c r="G50" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J50" s="89"/>
+      <c r="K50" s="85"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="89"/>
+      <c r="N50" s="89"/>
+      <c r="O50" s="89"/>
+    </row>
+    <row r="51" spans="1:15" ht="52.8" x14ac:dyDescent="0.45">
+      <c r="A51" s="55"/>
+      <c r="D51" s="2"/>
+      <c r="F51" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I48" s="87"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="87"/>
-      <c r="N48" s="87"/>
-    </row>
-    <row r="49" spans="1:14" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="A49" s="58"/>
-      <c r="C49" s="2"/>
-      <c r="F49" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I49" s="87"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="87"/>
-      <c r="M49" s="87"/>
-      <c r="N49" s="87"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A50" s="58"/>
-      <c r="C50" s="2"/>
-      <c r="F50" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I50" s="87"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="87"/>
-      <c r="M50" s="87"/>
-      <c r="N50" s="87"/>
-    </row>
-    <row r="51" spans="1:14" ht="52.8" x14ac:dyDescent="0.45">
-      <c r="A51" s="58"/>
-      <c r="C51" s="2"/>
-      <c r="E51" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I51" s="87"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="87"/>
-      <c r="M51" s="87"/>
-      <c r="N51" s="87"/>
-    </row>
-    <row r="52" spans="1:14" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A52" s="57"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="85"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="89"/>
+      <c r="N51" s="89"/>
+      <c r="O51" s="89"/>
+    </row>
+    <row r="52" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A52" s="54"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="E52" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="D52" s="2"/>
       <c r="F52" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G52" s="2"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="87"/>
-      <c r="M52" s="87"/>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A53" s="63"/>
+        <v>147</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="85"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="89"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="89"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A53" s="60"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="88"/>
-      <c r="M53" s="88"/>
-      <c r="N53" s="88"/>
-    </row>
-    <row r="54" spans="1:14" ht="52.8" x14ac:dyDescent="0.45">
-      <c r="A54" s="56">
+      <c r="D53" s="8"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="86"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="90"/>
+      <c r="N53" s="90"/>
+      <c r="O53" s="90"/>
+    </row>
+    <row r="54" spans="1:15" ht="52.8" x14ac:dyDescent="0.45">
+      <c r="A54" s="53">
         <v>13</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C54" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="G54" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H54" s="9"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="K54" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="L54" s="54"/>
+      <c r="M54" s="88"/>
+      <c r="N54" s="88"/>
+      <c r="O54" s="88"/>
+    </row>
+    <row r="55" spans="1:15" ht="52.8" x14ac:dyDescent="0.45">
+      <c r="A55" s="55"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="G55" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="H55" s="2"/>
+      <c r="I55" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J55" s="89"/>
+      <c r="K55" s="85"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="89"/>
+      <c r="N55" s="89"/>
+      <c r="O55" s="89"/>
+    </row>
+    <row r="56" spans="1:15" ht="118.8" x14ac:dyDescent="0.45">
+      <c r="A56" s="55"/>
+      <c r="D56" s="2"/>
+      <c r="F56" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G54" s="9"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="86" t="s">
+      <c r="J56" s="89"/>
+      <c r="K56" s="85"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="89"/>
+      <c r="N56" s="89"/>
+      <c r="O56" s="89"/>
+    </row>
+    <row r="57" spans="1:15" ht="52.8" x14ac:dyDescent="0.45">
+      <c r="A57" s="53">
+        <v>14</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="J54" s="82" t="s">
-        <v>165</v>
-      </c>
-      <c r="K54" s="57"/>
-      <c r="L54" s="86"/>
-      <c r="M54" s="86"/>
-      <c r="N54" s="86"/>
-    </row>
-    <row r="55" spans="1:14" ht="52.8" x14ac:dyDescent="0.45">
-      <c r="A55" s="58"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I55" s="87"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="87"/>
-      <c r="M55" s="87"/>
-      <c r="N55" s="87"/>
-    </row>
-    <row r="56" spans="1:14" ht="118.8" x14ac:dyDescent="0.45">
-      <c r="A56" s="58"/>
-      <c r="C56" s="2"/>
-      <c r="E56" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I56" s="87"/>
-      <c r="J56" s="83"/>
-      <c r="K56" s="57"/>
-      <c r="L56" s="87"/>
-      <c r="M56" s="87"/>
-      <c r="N56" s="87"/>
-    </row>
-    <row r="57" spans="1:14" ht="52.8" x14ac:dyDescent="0.45">
-      <c r="A57" s="56">
-        <v>14</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C57" s="9" t="s">
+      <c r="G57" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="J57" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="K57" s="84" t="s">
         <v>170</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="L57" s="54"/>
+      <c r="M57" s="88"/>
+      <c r="N57" s="88"/>
+      <c r="O57" s="88"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A58" s="55"/>
+      <c r="D58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9" t="s">
+      <c r="J58" s="89"/>
+      <c r="K58" s="85"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="89"/>
+      <c r="N58" s="89"/>
+      <c r="O58" s="89"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A59" s="55"/>
+      <c r="D59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I57" s="86" t="s">
+      <c r="J59" s="89"/>
+      <c r="K59" s="85"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="89"/>
+      <c r="N59" s="89"/>
+      <c r="O59" s="89"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A60" s="55"/>
+      <c r="D60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J57" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="K57" s="57"/>
-      <c r="L57" s="86"/>
-      <c r="M57" s="86"/>
-      <c r="N57" s="86"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A58" s="58"/>
-      <c r="C58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I58" s="87"/>
-      <c r="J58" s="83"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="87"/>
-      <c r="M58" s="87"/>
-      <c r="N58" s="87"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A59" s="58"/>
-      <c r="C59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I59" s="87"/>
-      <c r="J59" s="83"/>
-      <c r="K59" s="57"/>
-      <c r="L59" s="87"/>
-      <c r="M59" s="87"/>
-      <c r="N59" s="87"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A60" s="58"/>
-      <c r="C60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I60" s="87"/>
-      <c r="J60" s="83"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="87"/>
-      <c r="M60" s="87"/>
-      <c r="N60" s="87"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A61" s="58"/>
-      <c r="C61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="I61" s="87"/>
-      <c r="J61" s="83"/>
-      <c r="K61" s="57"/>
-      <c r="L61" s="87"/>
-      <c r="M61" s="87"/>
-      <c r="N61" s="87"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A62" s="58"/>
-      <c r="C62" s="2"/>
-      <c r="G62" s="2"/>
+      <c r="J60" s="89"/>
+      <c r="K60" s="85"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="89"/>
+      <c r="N60" s="89"/>
+      <c r="O60" s="89"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A61" s="55"/>
+      <c r="D61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J61" s="89"/>
+      <c r="K61" s="85"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="89"/>
+      <c r="N61" s="89"/>
+      <c r="O61" s="89"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A62" s="55"/>
+      <c r="D62" s="2"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="87"/>
-      <c r="J62" s="83"/>
-      <c r="K62" s="57"/>
-      <c r="L62" s="87"/>
-      <c r="M62" s="87"/>
-      <c r="N62" s="87"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A63" s="58"/>
-      <c r="C63" s="2"/>
-      <c r="G63" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="89"/>
+      <c r="K62" s="85"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="89"/>
+      <c r="N62" s="89"/>
+      <c r="O62" s="89"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A63" s="55"/>
+      <c r="D63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="87"/>
-      <c r="J63" s="83"/>
-      <c r="K63" s="57"/>
-      <c r="L63" s="87"/>
-      <c r="M63" s="87"/>
-      <c r="N63" s="87"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A64" s="58"/>
-      <c r="C64" s="2"/>
-      <c r="G64" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="89"/>
+      <c r="K63" s="85"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="89"/>
+      <c r="N63" s="89"/>
+      <c r="O63" s="89"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A64" s="55"/>
+      <c r="D64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="87"/>
-      <c r="J64" s="83"/>
-      <c r="K64" s="57"/>
-      <c r="L64" s="87"/>
-      <c r="M64" s="87"/>
-      <c r="N64" s="87"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A65" s="58"/>
-      <c r="C65" s="2"/>
-      <c r="G65" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="89"/>
+      <c r="K64" s="85"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="89"/>
+      <c r="N64" s="89"/>
+      <c r="O64" s="89"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A65" s="55"/>
+      <c r="D65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="87"/>
-      <c r="J65" s="83"/>
-      <c r="K65" s="57"/>
-      <c r="L65" s="87"/>
-      <c r="M65" s="87"/>
-      <c r="N65" s="87"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A66" s="58"/>
-      <c r="C66" s="2"/>
-      <c r="G66" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="89"/>
+      <c r="K65" s="85"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="89"/>
+      <c r="N65" s="89"/>
+      <c r="O65" s="89"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A66" s="55"/>
+      <c r="D66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="87"/>
-      <c r="J66" s="83"/>
-      <c r="K66" s="57"/>
-      <c r="L66" s="87"/>
-      <c r="M66" s="87"/>
-      <c r="N66" s="87"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A67" s="58"/>
-      <c r="C67" s="2"/>
-      <c r="G67" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="89"/>
+      <c r="K66" s="85"/>
+      <c r="L66" s="54"/>
+      <c r="M66" s="89"/>
+      <c r="N66" s="89"/>
+      <c r="O66" s="89"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A67" s="55"/>
+      <c r="D67" s="2"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="87"/>
-      <c r="J67" s="83"/>
-      <c r="K67" s="57"/>
-      <c r="L67" s="87"/>
-      <c r="M67" s="87"/>
-      <c r="N67" s="87"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A68" s="58"/>
-      <c r="C68" s="2"/>
-      <c r="G68" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="89"/>
+      <c r="K67" s="85"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="89"/>
+      <c r="N67" s="89"/>
+      <c r="O67" s="89"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A68" s="55"/>
+      <c r="D68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="87"/>
-      <c r="J68" s="83"/>
-      <c r="K68" s="57"/>
-      <c r="L68" s="87"/>
-      <c r="M68" s="87"/>
-      <c r="N68" s="87"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A69" s="58"/>
-      <c r="C69" s="2"/>
-      <c r="G69" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="89"/>
+      <c r="K68" s="85"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="89"/>
+      <c r="N68" s="89"/>
+      <c r="O68" s="89"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A69" s="55"/>
+      <c r="D69" s="2"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="87"/>
-      <c r="J69" s="83"/>
-      <c r="K69" s="57"/>
-      <c r="L69" s="87"/>
-      <c r="M69" s="87"/>
-      <c r="N69" s="87"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A70" s="58"/>
-      <c r="C70" s="2"/>
-      <c r="G70" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="89"/>
+      <c r="K69" s="85"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="89"/>
+      <c r="N69" s="89"/>
+      <c r="O69" s="89"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A70" s="55"/>
+      <c r="D70" s="2"/>
       <c r="H70" s="2"/>
-      <c r="I70" s="87"/>
-      <c r="J70" s="83"/>
-      <c r="K70" s="57"/>
-      <c r="L70" s="87"/>
-      <c r="M70" s="87"/>
-      <c r="N70" s="87"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A71" s="58"/>
-      <c r="C71" s="2"/>
-      <c r="G71" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="89"/>
+      <c r="K70" s="85"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="89"/>
+      <c r="N70" s="89"/>
+      <c r="O70" s="89"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A71" s="55"/>
+      <c r="D71" s="2"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="87"/>
-      <c r="J71" s="83"/>
-      <c r="K71" s="57"/>
-      <c r="L71" s="87"/>
-      <c r="M71" s="87"/>
-      <c r="N71" s="87"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A72" s="57"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="89"/>
+      <c r="K71" s="85"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="89"/>
+      <c r="N71" s="89"/>
+      <c r="O71" s="89"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A72" s="54"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="G72" s="2"/>
+      <c r="D72" s="2"/>
       <c r="H72" s="2"/>
-      <c r="I72" s="87"/>
-      <c r="J72" s="83"/>
-      <c r="K72" s="57"/>
-      <c r="L72" s="87"/>
-      <c r="M72" s="87"/>
-      <c r="N72" s="87"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A73" s="63"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="89"/>
+      <c r="K72" s="85"/>
+      <c r="L72" s="54"/>
+      <c r="M72" s="89"/>
+      <c r="N72" s="89"/>
+      <c r="O72" s="89"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A73" s="60"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="24"/>
       <c r="H73" s="8"/>
-      <c r="I73" s="88"/>
-      <c r="J73" s="84"/>
-      <c r="K73" s="57"/>
-      <c r="L73" s="88"/>
-      <c r="M73" s="88"/>
-      <c r="N73" s="88"/>
-    </row>
-    <row r="74" spans="1:14" ht="79.2" x14ac:dyDescent="0.45">
-      <c r="A74" s="56">
+      <c r="I73" s="8"/>
+      <c r="J73" s="90"/>
+      <c r="K73" s="86"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="90"/>
+      <c r="N73" s="90"/>
+      <c r="O73" s="90"/>
+    </row>
+    <row r="74" spans="1:15" ht="79.2" x14ac:dyDescent="0.45">
+      <c r="A74" s="53">
         <v>15</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C74" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="J74" s="88" t="s">
         <v>178</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="K74" s="84" t="s">
         <v>179</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="L74" s="54"/>
+      <c r="M74" s="88"/>
+      <c r="N74" s="88"/>
+      <c r="O74" s="88"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A75" s="55"/>
+      <c r="D75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I74" s="86" t="s">
-        <v>182</v>
-      </c>
-      <c r="J74" s="82" t="s">
-        <v>183</v>
-      </c>
-      <c r="K74" s="57"/>
-      <c r="L74" s="86"/>
-      <c r="M74" s="86"/>
-      <c r="N74" s="86"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A75" s="58"/>
-      <c r="C75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I75" s="87"/>
-      <c r="J75" s="83"/>
-      <c r="K75" s="57"/>
-      <c r="L75" s="87"/>
-      <c r="M75" s="87"/>
-      <c r="N75" s="87"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A76" s="58"/>
-      <c r="C76" s="2"/>
-      <c r="G76" s="2"/>
+      <c r="J75" s="89"/>
+      <c r="K75" s="85"/>
+      <c r="L75" s="54"/>
+      <c r="M75" s="89"/>
+      <c r="N75" s="89"/>
+      <c r="O75" s="89"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A76" s="55"/>
+      <c r="D76" s="2"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="87"/>
-      <c r="J76" s="83"/>
-      <c r="K76" s="57"/>
-      <c r="L76" s="87"/>
-      <c r="M76" s="87"/>
-      <c r="N76" s="87"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A77" s="57"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="89"/>
+      <c r="K76" s="85"/>
+      <c r="L76" s="54"/>
+      <c r="M76" s="89"/>
+      <c r="N76" s="89"/>
+      <c r="O76" s="89"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A77" s="54"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="G77" s="2"/>
+      <c r="D77" s="2"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="87"/>
-      <c r="J77" s="83"/>
-      <c r="K77" s="57"/>
-      <c r="L77" s="87"/>
-      <c r="M77" s="87"/>
-      <c r="N77" s="87"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A78" s="63"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="89"/>
+      <c r="K77" s="85"/>
+      <c r="L77" s="54"/>
+      <c r="M77" s="89"/>
+      <c r="N77" s="89"/>
+      <c r="O77" s="89"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A78" s="60"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="24"/>
       <c r="H78" s="8"/>
-      <c r="I78" s="88"/>
-      <c r="J78" s="84"/>
-      <c r="K78" s="57"/>
-      <c r="L78" s="88"/>
-      <c r="M78" s="88"/>
-      <c r="N78" s="88"/>
-    </row>
-    <row r="79" spans="1:14" ht="97.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="64">
+      <c r="I78" s="8"/>
+      <c r="J78" s="90"/>
+      <c r="K78" s="86"/>
+      <c r="L78" s="54"/>
+      <c r="M78" s="90"/>
+      <c r="N78" s="90"/>
+      <c r="O78" s="90"/>
+    </row>
+    <row r="79" spans="1:15" ht="97.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="61">
         <v>16</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>185</v>
+        <v>197</v>
+      </c>
+      <c r="C79" s="80" t="s">
+        <v>197</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="F79" s="19"/>
+        <v>182</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>183</v>
+      </c>
       <c r="G79" s="19"/>
-      <c r="H79" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="I79" s="25"/>
-      <c r="J79" s="65"/>
-      <c r="K79" s="57"/>
-      <c r="L79" s="25"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="J79" s="25"/>
+      <c r="K79" s="62"/>
+      <c r="L79" s="54"/>
       <c r="M79" s="25"/>
       <c r="N79" s="25"/>
-    </row>
-    <row r="80" spans="1:14" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A80" s="56">
+      <c r="O79" s="25"/>
+    </row>
+    <row r="80" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A80" s="53">
         <v>17</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E80" s="4"/>
+        <v>197</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="F80" s="4"/>
-      <c r="G80" s="9"/>
+      <c r="G80" s="4"/>
       <c r="H80" s="9"/>
-      <c r="I80" s="86"/>
-      <c r="J80" s="82"/>
-      <c r="K80" s="57"/>
-      <c r="L80" s="92"/>
-      <c r="M80" s="92"/>
-      <c r="N80" s="92"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A81" s="58"/>
-      <c r="C81" s="2"/>
-      <c r="G81" s="2"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="88"/>
+      <c r="K80" s="84"/>
+      <c r="L80" s="54"/>
+      <c r="M80" s="94"/>
+      <c r="N80" s="94"/>
+      <c r="O80" s="94"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A81" s="55"/>
+      <c r="D81" s="2"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="87"/>
-      <c r="J81" s="83"/>
-      <c r="K81" s="57"/>
-      <c r="L81" s="92"/>
-      <c r="M81" s="92"/>
-      <c r="N81" s="92"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A82" s="58"/>
-      <c r="C82" s="2"/>
-      <c r="G82" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="89"/>
+      <c r="K81" s="85"/>
+      <c r="L81" s="54"/>
+      <c r="M81" s="94"/>
+      <c r="N81" s="94"/>
+      <c r="O81" s="94"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A82" s="55"/>
+      <c r="D82" s="2"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="87"/>
-      <c r="J82" s="83"/>
-      <c r="K82" s="57"/>
-      <c r="L82" s="92"/>
-      <c r="M82" s="92"/>
-      <c r="N82" s="92"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A83" s="58"/>
-      <c r="C83" s="2"/>
-      <c r="G83" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="89"/>
+      <c r="K82" s="85"/>
+      <c r="L82" s="54"/>
+      <c r="M82" s="94"/>
+      <c r="N82" s="94"/>
+      <c r="O82" s="94"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A83" s="55"/>
+      <c r="D83" s="2"/>
       <c r="H83" s="2"/>
-      <c r="I83" s="87"/>
-      <c r="J83" s="83"/>
-      <c r="K83" s="57"/>
-      <c r="L83" s="92"/>
-      <c r="M83" s="92"/>
-      <c r="N83" s="92"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A84" s="58"/>
-      <c r="C84" s="2"/>
-      <c r="G84" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="89"/>
+      <c r="K83" s="85"/>
+      <c r="L83" s="54"/>
+      <c r="M83" s="94"/>
+      <c r="N83" s="94"/>
+      <c r="O83" s="94"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A84" s="55"/>
+      <c r="D84" s="2"/>
       <c r="H84" s="2"/>
-      <c r="I84" s="87"/>
-      <c r="J84" s="83"/>
-      <c r="K84" s="57"/>
-      <c r="L84" s="92"/>
-      <c r="M84" s="92"/>
-      <c r="N84" s="92"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A85" s="58"/>
-      <c r="C85" s="2"/>
-      <c r="G85" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="89"/>
+      <c r="K84" s="85"/>
+      <c r="L84" s="54"/>
+      <c r="M84" s="94"/>
+      <c r="N84" s="94"/>
+      <c r="O84" s="94"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A85" s="55"/>
+      <c r="D85" s="2"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="87"/>
-      <c r="J85" s="83"/>
-      <c r="K85" s="57"/>
-      <c r="L85" s="92"/>
-      <c r="M85" s="92"/>
-      <c r="N85" s="92"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A86" s="57"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="89"/>
+      <c r="K85" s="85"/>
+      <c r="L85" s="54"/>
+      <c r="M85" s="94"/>
+      <c r="N85" s="94"/>
+      <c r="O85" s="94"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A86" s="54"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="G86" s="2"/>
+      <c r="D86" s="2"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="87"/>
-      <c r="J86" s="83"/>
-      <c r="K86" s="57"/>
-      <c r="L86" s="92"/>
-      <c r="M86" s="92"/>
-      <c r="N86" s="92"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A87" s="63"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="89"/>
+      <c r="K86" s="85"/>
+      <c r="L86" s="54"/>
+      <c r="M86" s="94"/>
+      <c r="N86" s="94"/>
+      <c r="O86" s="94"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A87" s="60"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="24"/>
       <c r="H87" s="8"/>
-      <c r="I87" s="88"/>
-      <c r="J87" s="84"/>
-      <c r="K87" s="57"/>
-      <c r="L87" s="92"/>
-      <c r="M87" s="92"/>
-      <c r="N87" s="92"/>
-    </row>
-    <row r="88" spans="1:14" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="A88" s="56">
+      <c r="I87" s="8"/>
+      <c r="J87" s="90"/>
+      <c r="K87" s="86"/>
+      <c r="L87" s="54"/>
+      <c r="M87" s="94"/>
+      <c r="N87" s="94"/>
+      <c r="O87" s="94"/>
+    </row>
+    <row r="88" spans="1:15" ht="39.6" x14ac:dyDescent="0.45">
+      <c r="A88" s="53">
         <v>18</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C88" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="I88" s="86"/>
-      <c r="J88" s="82"/>
-      <c r="K88" s="57"/>
-      <c r="L88" s="92"/>
-      <c r="M88" s="92"/>
-      <c r="N88" s="92"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A89" s="58"/>
-      <c r="C89" s="2"/>
-      <c r="G89" s="2"/>
+      <c r="J88" s="88"/>
+      <c r="K88" s="84"/>
+      <c r="L88" s="54"/>
+      <c r="M88" s="94"/>
+      <c r="N88" s="94"/>
+      <c r="O88" s="94"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A89" s="55"/>
+      <c r="D89" s="2"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="87"/>
-      <c r="J89" s="83"/>
-      <c r="K89" s="57"/>
-      <c r="L89" s="92"/>
-      <c r="M89" s="92"/>
-      <c r="N89" s="92"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A90" s="58"/>
-      <c r="C90" s="2"/>
-      <c r="G90" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="89"/>
+      <c r="K89" s="85"/>
+      <c r="L89" s="54"/>
+      <c r="M89" s="94"/>
+      <c r="N89" s="94"/>
+      <c r="O89" s="94"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A90" s="55"/>
+      <c r="D90" s="2"/>
       <c r="H90" s="2"/>
-      <c r="I90" s="87"/>
-      <c r="J90" s="83"/>
-      <c r="K90" s="57"/>
-      <c r="L90" s="92"/>
-      <c r="M90" s="92"/>
-      <c r="N90" s="92"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A91" s="58"/>
-      <c r="C91" s="2"/>
-      <c r="G91" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="89"/>
+      <c r="K90" s="85"/>
+      <c r="L90" s="54"/>
+      <c r="M90" s="94"/>
+      <c r="N90" s="94"/>
+      <c r="O90" s="94"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A91" s="55"/>
+      <c r="D91" s="2"/>
       <c r="H91" s="2"/>
-      <c r="I91" s="87"/>
-      <c r="J91" s="83"/>
-      <c r="K91" s="57"/>
-      <c r="L91" s="92"/>
-      <c r="M91" s="92"/>
-      <c r="N91" s="92"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A92" s="58"/>
-      <c r="C92" s="2"/>
-      <c r="G92" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="89"/>
+      <c r="K91" s="85"/>
+      <c r="L91" s="54"/>
+      <c r="M91" s="94"/>
+      <c r="N91" s="94"/>
+      <c r="O91" s="94"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A92" s="55"/>
+      <c r="D92" s="2"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="87"/>
-      <c r="J92" s="83"/>
-      <c r="K92" s="57"/>
-      <c r="L92" s="92"/>
-      <c r="M92" s="92"/>
-      <c r="N92" s="92"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A93" s="58"/>
-      <c r="C93" s="2"/>
-      <c r="G93" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="89"/>
+      <c r="K92" s="85"/>
+      <c r="L92" s="54"/>
+      <c r="M92" s="94"/>
+      <c r="N92" s="94"/>
+      <c r="O92" s="94"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A93" s="55"/>
+      <c r="D93" s="2"/>
       <c r="H93" s="2"/>
-      <c r="I93" s="87"/>
-      <c r="J93" s="83"/>
-      <c r="K93" s="57"/>
-      <c r="L93" s="92"/>
-      <c r="M93" s="92"/>
-      <c r="N93" s="92"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A94" s="58"/>
-      <c r="C94" s="2"/>
-      <c r="G94" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="89"/>
+      <c r="K93" s="85"/>
+      <c r="L93" s="54"/>
+      <c r="M93" s="94"/>
+      <c r="N93" s="94"/>
+      <c r="O93" s="94"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A94" s="55"/>
+      <c r="D94" s="2"/>
       <c r="H94" s="2"/>
-      <c r="I94" s="87"/>
-      <c r="J94" s="83"/>
-      <c r="K94" s="57"/>
-      <c r="L94" s="92"/>
-      <c r="M94" s="92"/>
-      <c r="N94" s="92"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A95" s="57"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="89"/>
+      <c r="K94" s="85"/>
+      <c r="L94" s="54"/>
+      <c r="M94" s="94"/>
+      <c r="N94" s="94"/>
+      <c r="O94" s="94"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A95" s="54"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="G95" s="2"/>
+      <c r="D95" s="2"/>
       <c r="H95" s="2"/>
-      <c r="I95" s="87"/>
-      <c r="J95" s="83"/>
-      <c r="K95" s="57"/>
-      <c r="L95" s="92"/>
-      <c r="M95" s="92"/>
-      <c r="N95" s="92"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A96" s="63"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="89"/>
+      <c r="K95" s="85"/>
+      <c r="L95" s="54"/>
+      <c r="M95" s="94"/>
+      <c r="N95" s="94"/>
+      <c r="O95" s="94"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A96" s="60"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="24"/>
       <c r="H96" s="8"/>
-      <c r="I96" s="88"/>
-      <c r="J96" s="84"/>
-      <c r="K96" s="57"/>
-      <c r="L96" s="92"/>
-      <c r="M96" s="92"/>
-      <c r="N96" s="92"/>
-    </row>
-    <row r="97" spans="1:14" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A97" s="56">
+      <c r="I96" s="8"/>
+      <c r="J96" s="90"/>
+      <c r="K96" s="86"/>
+      <c r="L96" s="54"/>
+      <c r="M96" s="94"/>
+      <c r="N96" s="94"/>
+      <c r="O96" s="94"/>
+    </row>
+    <row r="97" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A97" s="53">
         <v>19</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D97" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E97" s="4"/>
+      <c r="C97" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="F97" s="4"/>
-      <c r="G97" s="9"/>
+      <c r="G97" s="4"/>
       <c r="H97" s="9"/>
-      <c r="I97" s="86"/>
-      <c r="J97" s="82"/>
-      <c r="K97" s="57"/>
-      <c r="L97" s="92"/>
-      <c r="M97" s="92"/>
-      <c r="N97" s="92"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A98" s="58"/>
-      <c r="C98" s="2"/>
-      <c r="G98" s="2"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="88"/>
+      <c r="K97" s="84"/>
+      <c r="L97" s="54"/>
+      <c r="M97" s="94"/>
+      <c r="N97" s="94"/>
+      <c r="O97" s="94"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A98" s="55"/>
+      <c r="D98" s="2"/>
       <c r="H98" s="2"/>
-      <c r="I98" s="87"/>
-      <c r="J98" s="83"/>
-      <c r="K98" s="57"/>
-      <c r="L98" s="92"/>
-      <c r="M98" s="92"/>
-      <c r="N98" s="92"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A99" s="58"/>
-      <c r="C99" s="2"/>
-      <c r="G99" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="89"/>
+      <c r="K98" s="85"/>
+      <c r="L98" s="54"/>
+      <c r="M98" s="94"/>
+      <c r="N98" s="94"/>
+      <c r="O98" s="94"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A99" s="55"/>
+      <c r="D99" s="2"/>
       <c r="H99" s="2"/>
-      <c r="I99" s="87"/>
-      <c r="J99" s="83"/>
-      <c r="K99" s="57"/>
-      <c r="L99" s="92"/>
-      <c r="M99" s="92"/>
-      <c r="N99" s="92"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A100" s="58"/>
-      <c r="C100" s="2"/>
-      <c r="G100" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="89"/>
+      <c r="K99" s="85"/>
+      <c r="L99" s="54"/>
+      <c r="M99" s="94"/>
+      <c r="N99" s="94"/>
+      <c r="O99" s="94"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A100" s="55"/>
+      <c r="D100" s="2"/>
       <c r="H100" s="2"/>
-      <c r="I100" s="87"/>
-      <c r="J100" s="83"/>
-      <c r="K100" s="57"/>
-      <c r="L100" s="92"/>
-      <c r="M100" s="92"/>
-      <c r="N100" s="92"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A101" s="58"/>
-      <c r="C101" s="2"/>
-      <c r="G101" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="89"/>
+      <c r="K100" s="85"/>
+      <c r="L100" s="54"/>
+      <c r="M100" s="94"/>
+      <c r="N100" s="94"/>
+      <c r="O100" s="94"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A101" s="55"/>
+      <c r="D101" s="2"/>
       <c r="H101" s="2"/>
-      <c r="I101" s="87"/>
-      <c r="J101" s="83"/>
-      <c r="K101" s="57"/>
-      <c r="L101" s="92"/>
-      <c r="M101" s="92"/>
-      <c r="N101" s="92"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A102" s="58"/>
-      <c r="C102" s="2"/>
-      <c r="G102" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="89"/>
+      <c r="K101" s="85"/>
+      <c r="L101" s="54"/>
+      <c r="M101" s="94"/>
+      <c r="N101" s="94"/>
+      <c r="O101" s="94"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A102" s="55"/>
+      <c r="D102" s="2"/>
       <c r="H102" s="2"/>
-      <c r="I102" s="87"/>
-      <c r="J102" s="83"/>
-      <c r="K102" s="57"/>
-      <c r="L102" s="92"/>
-      <c r="M102" s="92"/>
-      <c r="N102" s="92"/>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A103" s="57"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="89"/>
+      <c r="K102" s="85"/>
+      <c r="L102" s="54"/>
+      <c r="M102" s="94"/>
+      <c r="N102" s="94"/>
+      <c r="O102" s="94"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A103" s="54"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
-      <c r="G103" s="2"/>
+      <c r="D103" s="2"/>
       <c r="H103" s="2"/>
-      <c r="I103" s="87"/>
-      <c r="J103" s="83"/>
-      <c r="K103" s="57"/>
-      <c r="L103" s="92"/>
-      <c r="M103" s="92"/>
-      <c r="N103" s="92"/>
-    </row>
-    <row r="104" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A104" s="57"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="89"/>
+      <c r="K103" s="85"/>
+      <c r="L103" s="54"/>
+      <c r="M103" s="94"/>
+      <c r="N103" s="94"/>
+      <c r="O103" s="94"/>
+    </row>
+    <row r="104" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A104" s="54"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="24"/>
       <c r="H104" s="8"/>
-      <c r="I104" s="88"/>
-      <c r="J104" s="84"/>
-      <c r="K104" s="57"/>
-      <c r="L104" s="92"/>
-      <c r="M104" s="92"/>
-      <c r="N104" s="86"/>
-    </row>
-    <row r="105" spans="1:14" ht="52.8" collapsed="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="66">
+      <c r="I104" s="8"/>
+      <c r="J104" s="90"/>
+      <c r="K104" s="86"/>
+      <c r="L104" s="54"/>
+      <c r="M104" s="94"/>
+      <c r="N104" s="94"/>
+      <c r="O104" s="88"/>
+    </row>
+    <row r="105" spans="1:15" ht="52.8" collapsed="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="63">
         <v>20</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C105" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H105"/>
+      <c r="I105" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D105" s="67" t="s">
+      <c r="J105" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="E105" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G105"/>
-      <c r="H105" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="I105" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="J105" s="68"/>
-      <c r="K105" s="85"/>
-      <c r="L105" s="86"/>
-      <c r="M105" s="89"/>
-      <c r="N105" s="69"/>
-    </row>
-    <row r="106" spans="1:14" ht="18" x14ac:dyDescent="0.45">
-      <c r="A106" s="70"/>
+      <c r="K105" s="65"/>
+      <c r="L105" s="87"/>
+      <c r="M105" s="88"/>
+      <c r="N105" s="91"/>
+      <c r="O105" s="66"/>
+    </row>
+    <row r="106" spans="1:15" ht="18" x14ac:dyDescent="0.45">
+      <c r="A106" s="67"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="71" t="s">
-        <v>208</v>
-      </c>
-      <c r="G106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="68" t="s">
+        <v>204</v>
+      </c>
       <c r="H106" s="2"/>
-      <c r="I106" s="22"/>
-      <c r="J106" s="68"/>
-      <c r="K106" s="85"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="65"/>
       <c r="L106" s="87"/>
-      <c r="M106" s="90"/>
-      <c r="N106" s="11"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A107" s="70"/>
+      <c r="M106" s="89"/>
+      <c r="N106" s="92"/>
+      <c r="O106" s="11"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A107" s="67"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="G107" s="2"/>
+      <c r="E107" s="2"/>
       <c r="H107" s="2"/>
-      <c r="I107" s="22"/>
-      <c r="J107" s="68"/>
-      <c r="K107" s="85"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="65"/>
       <c r="L107" s="87"/>
-      <c r="M107" s="90"/>
-      <c r="N107" s="11"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A108" s="72"/>
+      <c r="M107" s="89"/>
+      <c r="N107" s="92"/>
+      <c r="O107" s="11"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A108" s="69"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-      <c r="G108" s="2"/>
+      <c r="E108" s="2"/>
       <c r="H108" s="2"/>
-      <c r="I108" s="22"/>
-      <c r="J108" s="68"/>
-      <c r="K108" s="85"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="65"/>
       <c r="L108" s="87"/>
-      <c r="M108" s="90"/>
-      <c r="N108" s="11"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A109" s="72"/>
+      <c r="M108" s="89"/>
+      <c r="N108" s="92"/>
+      <c r="O108" s="11"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A109" s="69"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
-      <c r="G109" s="2"/>
+      <c r="E109" s="2"/>
       <c r="H109" s="2"/>
-      <c r="I109" s="22"/>
-      <c r="J109" s="68"/>
-      <c r="K109" s="85"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="65"/>
       <c r="L109" s="87"/>
-      <c r="M109" s="90"/>
-      <c r="N109" s="11"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A110" s="73"/>
+      <c r="M109" s="89"/>
+      <c r="N109" s="92"/>
+      <c r="O109" s="11"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A110" s="70"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="24"/>
       <c r="H110" s="8"/>
-      <c r="I110" s="23"/>
-      <c r="J110" s="68"/>
-      <c r="K110" s="85"/>
-      <c r="L110" s="88"/>
-      <c r="M110" s="91"/>
-      <c r="N110" s="14"/>
-    </row>
-    <row r="111" spans="1:14" ht="154.05000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="74">
+      <c r="I110" s="8"/>
+      <c r="J110" s="23"/>
+      <c r="K110" s="65"/>
+      <c r="L110" s="87"/>
+      <c r="M110" s="90"/>
+      <c r="N110" s="93"/>
+      <c r="O110" s="14"/>
+    </row>
+    <row r="111" spans="1:15" ht="154.05000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="71">
         <v>21</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C111" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E111" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H111"/>
+      <c r="I111" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D111" s="67" t="s">
+      <c r="J111" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="E111" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G111"/>
-      <c r="H111" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I111" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="J111" s="82"/>
-      <c r="K111" s="85"/>
-      <c r="L111" s="86"/>
-      <c r="M111" s="89"/>
-      <c r="N111" s="69"/>
-    </row>
-    <row r="112" spans="1:14" ht="18" x14ac:dyDescent="0.45">
-      <c r="A112" s="70"/>
+      <c r="K111" s="84"/>
+      <c r="L111" s="87"/>
+      <c r="M111" s="88"/>
+      <c r="N111" s="91"/>
+      <c r="O111" s="66"/>
+    </row>
+    <row r="112" spans="1:15" ht="18" x14ac:dyDescent="0.45">
+      <c r="A112" s="67"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="G112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="68" t="s">
+        <v>211</v>
+      </c>
       <c r="H112" s="2"/>
-      <c r="I112" s="22"/>
-      <c r="J112" s="83"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="22"/>
       <c r="K112" s="85"/>
       <c r="L112" s="87"/>
-      <c r="M112" s="90"/>
-      <c r="N112" s="11"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A113" s="70"/>
+      <c r="M112" s="89"/>
+      <c r="N112" s="92"/>
+      <c r="O112" s="11"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A113" s="67"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
-      <c r="G113" s="2"/>
+      <c r="E113" s="2"/>
       <c r="H113" s="2"/>
-      <c r="I113" s="22"/>
-      <c r="J113" s="83"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="22"/>
       <c r="K113" s="85"/>
       <c r="L113" s="87"/>
-      <c r="M113" s="90"/>
-      <c r="N113" s="11"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A114" s="72"/>
+      <c r="M113" s="89"/>
+      <c r="N113" s="92"/>
+      <c r="O113" s="11"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A114" s="69"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
-      <c r="G114" s="2"/>
+      <c r="E114" s="2"/>
       <c r="H114" s="2"/>
-      <c r="I114" s="22"/>
-      <c r="J114" s="83"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="22"/>
       <c r="K114" s="85"/>
       <c r="L114" s="87"/>
-      <c r="M114" s="90"/>
-      <c r="N114" s="11"/>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A115" s="73"/>
+      <c r="M114" s="89"/>
+      <c r="N114" s="92"/>
+      <c r="O114" s="11"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A115" s="70"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="24"/>
       <c r="H115" s="8"/>
-      <c r="I115" s="23"/>
-      <c r="J115" s="84"/>
-      <c r="K115" s="85"/>
-      <c r="L115" s="88"/>
-      <c r="M115" s="91"/>
-      <c r="N115" s="14"/>
-    </row>
-    <row r="116" spans="1:14" ht="66" x14ac:dyDescent="0.45">
-      <c r="A116" s="74">
+      <c r="I115" s="8"/>
+      <c r="J115" s="23"/>
+      <c r="K115" s="86"/>
+      <c r="L115" s="87"/>
+      <c r="M115" s="90"/>
+      <c r="N115" s="93"/>
+      <c r="O115" s="14"/>
+    </row>
+    <row r="116" spans="1:15" ht="66" x14ac:dyDescent="0.45">
+      <c r="A116" s="71">
         <v>22</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D116" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E116" s="64" t="s">
+        <v>213</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="G116" s="75"/>
-      <c r="H116" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="I116" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="J116" s="82"/>
-      <c r="K116" s="85"/>
-      <c r="L116" s="86"/>
-      <c r="M116" s="86"/>
-      <c r="N116" s="69"/>
-    </row>
-    <row r="117" spans="1:14" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A117" s="70"/>
+        <v>214</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H116" s="72"/>
+      <c r="I116" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="J116" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="K116" s="84"/>
+      <c r="L116" s="87"/>
+      <c r="M116" s="88"/>
+      <c r="N116" s="88"/>
+      <c r="O116" s="66"/>
+    </row>
+    <row r="117" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A117" s="67"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
-      <c r="D117" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="H117" s="2"/>
-      <c r="I117" s="22"/>
-      <c r="J117" s="83"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="22"/>
       <c r="K117" s="85"/>
       <c r="L117" s="87"/>
-      <c r="M117" s="87"/>
-      <c r="N117" s="11"/>
-    </row>
-    <row r="118" spans="1:14" ht="18" x14ac:dyDescent="0.45">
-      <c r="A118" s="70"/>
+      <c r="M117" s="89"/>
+      <c r="N117" s="89"/>
+      <c r="O117" s="11"/>
+    </row>
+    <row r="118" spans="1:15" ht="18" x14ac:dyDescent="0.45">
+      <c r="A118" s="67"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
-      <c r="D118" s="71" t="s">
-        <v>269</v>
-      </c>
-      <c r="G118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="68" t="s">
+        <v>262</v>
+      </c>
       <c r="H118" s="2"/>
-      <c r="I118" s="22"/>
-      <c r="J118" s="83"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="22"/>
       <c r="K118" s="85"/>
       <c r="L118" s="87"/>
-      <c r="M118" s="87"/>
-      <c r="N118" s="11"/>
-    </row>
-    <row r="119" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A119" s="72"/>
+      <c r="M118" s="89"/>
+      <c r="N118" s="89"/>
+      <c r="O118" s="11"/>
+    </row>
+    <row r="119" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A119" s="69"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
-      <c r="G119" s="2"/>
+      <c r="E119" s="2"/>
       <c r="H119" s="2"/>
-      <c r="I119" s="22"/>
-      <c r="J119" s="83"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="22"/>
       <c r="K119" s="85"/>
       <c r="L119" s="87"/>
-      <c r="M119" s="87"/>
-      <c r="N119" s="11"/>
-    </row>
-    <row r="120" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A120" s="72"/>
+      <c r="M119" s="89"/>
+      <c r="N119" s="89"/>
+      <c r="O119" s="11"/>
+    </row>
+    <row r="120" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="69"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
-      <c r="G120" s="2"/>
+      <c r="E120" s="2"/>
       <c r="H120" s="2"/>
-      <c r="I120" s="22"/>
-      <c r="J120" s="83"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="22"/>
       <c r="K120" s="85"/>
       <c r="L120" s="87"/>
-      <c r="M120" s="87"/>
-      <c r="N120" s="11"/>
-    </row>
-    <row r="121" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="72"/>
+      <c r="M120" s="89"/>
+      <c r="N120" s="89"/>
+      <c r="O120" s="11"/>
+    </row>
+    <row r="121" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A121" s="69"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
-      <c r="G121" s="2"/>
+      <c r="E121" s="2"/>
       <c r="H121" s="2"/>
-      <c r="I121" s="22"/>
-      <c r="J121" s="83"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="22"/>
       <c r="K121" s="85"/>
       <c r="L121" s="87"/>
-      <c r="M121" s="87"/>
-      <c r="N121" s="11"/>
-    </row>
-    <row r="122" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A122" s="72"/>
+      <c r="M121" s="89"/>
+      <c r="N121" s="89"/>
+      <c r="O121" s="11"/>
+    </row>
+    <row r="122" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A122" s="69"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
-      <c r="G122" s="2"/>
+      <c r="E122" s="2"/>
       <c r="H122" s="2"/>
-      <c r="I122" s="22"/>
-      <c r="J122" s="83"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="22"/>
       <c r="K122" s="85"/>
       <c r="L122" s="87"/>
-      <c r="M122" s="87"/>
-      <c r="N122" s="11"/>
-    </row>
-    <row r="123" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="72"/>
+      <c r="M122" s="89"/>
+      <c r="N122" s="89"/>
+      <c r="O122" s="11"/>
+    </row>
+    <row r="123" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A123" s="69"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
-      <c r="G123" s="2"/>
+      <c r="E123" s="2"/>
       <c r="H123" s="2"/>
-      <c r="I123" s="22"/>
-      <c r="J123" s="83"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="22"/>
       <c r="K123" s="85"/>
       <c r="L123" s="87"/>
-      <c r="M123" s="87"/>
-      <c r="N123" s="11"/>
-    </row>
-    <row r="124" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A124" s="72"/>
+      <c r="M123" s="89"/>
+      <c r="N123" s="89"/>
+      <c r="O123" s="11"/>
+    </row>
+    <row r="124" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A124" s="69"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
-      <c r="G124" s="2"/>
+      <c r="E124" s="2"/>
       <c r="H124" s="2"/>
-      <c r="I124" s="22"/>
-      <c r="J124" s="83"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="22"/>
       <c r="K124" s="85"/>
       <c r="L124" s="87"/>
-      <c r="M124" s="87"/>
-      <c r="N124" s="11"/>
-    </row>
-    <row r="125" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A125" s="72"/>
+      <c r="M124" s="89"/>
+      <c r="N124" s="89"/>
+      <c r="O124" s="11"/>
+    </row>
+    <row r="125" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A125" s="69"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
-      <c r="G125" s="2"/>
+      <c r="E125" s="2"/>
       <c r="H125" s="2"/>
-      <c r="I125" s="22"/>
-      <c r="J125" s="83"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="22"/>
       <c r="K125" s="85"/>
       <c r="L125" s="87"/>
-      <c r="M125" s="87"/>
-      <c r="N125" s="11"/>
-    </row>
-    <row r="126" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A126" s="72"/>
+      <c r="M125" s="89"/>
+      <c r="N125" s="89"/>
+      <c r="O125" s="11"/>
+    </row>
+    <row r="126" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A126" s="69"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
-      <c r="G126" s="2"/>
+      <c r="E126" s="2"/>
       <c r="H126" s="2"/>
-      <c r="I126" s="22"/>
-      <c r="J126" s="83"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="22"/>
       <c r="K126" s="85"/>
       <c r="L126" s="87"/>
-      <c r="M126" s="87"/>
-      <c r="N126" s="11"/>
-    </row>
-    <row r="127" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A127" s="72"/>
+      <c r="M126" s="89"/>
+      <c r="N126" s="89"/>
+      <c r="O126" s="11"/>
+    </row>
+    <row r="127" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A127" s="69"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
-      <c r="G127" s="2"/>
+      <c r="E127" s="2"/>
       <c r="H127" s="2"/>
-      <c r="I127" s="22"/>
-      <c r="J127" s="83"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="22"/>
       <c r="K127" s="85"/>
       <c r="L127" s="87"/>
-      <c r="M127" s="87"/>
-      <c r="N127" s="11"/>
-    </row>
-    <row r="128" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A128" s="72"/>
+      <c r="M127" s="89"/>
+      <c r="N127" s="89"/>
+      <c r="O127" s="11"/>
+    </row>
+    <row r="128" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A128" s="69"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
-      <c r="G128" s="2"/>
+      <c r="E128" s="2"/>
       <c r="H128" s="2"/>
-      <c r="I128" s="22"/>
-      <c r="J128" s="83"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="22"/>
       <c r="K128" s="85"/>
       <c r="L128" s="87"/>
-      <c r="M128" s="87"/>
-      <c r="N128" s="11"/>
-    </row>
-    <row r="129" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A129" s="72"/>
+      <c r="M128" s="89"/>
+      <c r="N128" s="89"/>
+      <c r="O128" s="11"/>
+    </row>
+    <row r="129" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A129" s="69"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
-      <c r="G129" s="2"/>
+      <c r="E129" s="2"/>
       <c r="H129" s="2"/>
-      <c r="I129" s="22"/>
-      <c r="J129" s="83"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="22"/>
       <c r="K129" s="85"/>
       <c r="L129" s="87"/>
-      <c r="M129" s="87"/>
-      <c r="N129" s="11"/>
-    </row>
-    <row r="130" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A130" s="72"/>
+      <c r="M129" s="89"/>
+      <c r="N129" s="89"/>
+      <c r="O129" s="11"/>
+    </row>
+    <row r="130" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A130" s="69"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
-      <c r="G130" s="2"/>
+      <c r="E130" s="2"/>
       <c r="H130" s="2"/>
-      <c r="I130" s="22"/>
-      <c r="J130" s="83"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="22"/>
       <c r="K130" s="85"/>
       <c r="L130" s="87"/>
-      <c r="M130" s="87"/>
-      <c r="N130" s="11"/>
-    </row>
-    <row r="131" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A131" s="72"/>
+      <c r="M130" s="89"/>
+      <c r="N130" s="89"/>
+      <c r="O130" s="11"/>
+    </row>
+    <row r="131" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A131" s="69"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
-      <c r="G131" s="2"/>
+      <c r="E131" s="2"/>
       <c r="H131" s="2"/>
-      <c r="I131" s="22"/>
-      <c r="J131" s="83"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="22"/>
       <c r="K131" s="85"/>
       <c r="L131" s="87"/>
-      <c r="M131" s="87"/>
-      <c r="N131" s="11"/>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A132" s="73"/>
+      <c r="M131" s="89"/>
+      <c r="N131" s="89"/>
+      <c r="O131" s="11"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A132" s="70"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="24"/>
       <c r="H132" s="8"/>
-      <c r="I132" s="23"/>
-      <c r="J132" s="84"/>
-      <c r="K132" s="85"/>
-      <c r="L132" s="88"/>
-      <c r="M132" s="88"/>
-      <c r="N132" s="14"/>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A133" s="70">
+      <c r="I132" s="8"/>
+      <c r="J132" s="23"/>
+      <c r="K132" s="86"/>
+      <c r="L132" s="87"/>
+      <c r="M132" s="90"/>
+      <c r="N132" s="90"/>
+      <c r="O132" s="14"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A133" s="67">
         <v>23</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="I133" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="J133" s="76"/>
-      <c r="K133" s="57"/>
-      <c r="L133" s="21"/>
+        <v>266</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J133" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="K133" s="73"/>
+      <c r="L133" s="54"/>
       <c r="M133" s="21"/>
       <c r="N133" s="21"/>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A134" s="70"/>
-      <c r="E134" s="3" t="s">
-        <v>277</v>
-      </c>
+      <c r="O133" s="21"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A134" s="67"/>
       <c r="F134" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="I134" s="22"/>
-      <c r="J134" s="76"/>
-      <c r="K134" s="57"/>
-      <c r="L134" s="22"/>
+        <v>270</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J134" s="22"/>
+      <c r="K134" s="73"/>
+      <c r="L134" s="54"/>
       <c r="M134" s="22"/>
       <c r="N134" s="22"/>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A135" s="70"/>
-      <c r="E135" s="3" t="s">
-        <v>279</v>
-      </c>
+      <c r="O134" s="22"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A135" s="67"/>
       <c r="F135" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I135" s="22"/>
-      <c r="J135" s="76"/>
-      <c r="K135" s="57"/>
-      <c r="L135" s="22"/>
+        <v>272</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="J135" s="22"/>
+      <c r="K135" s="73"/>
+      <c r="L135" s="54"/>
       <c r="M135" s="22"/>
       <c r="N135" s="22"/>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A136" s="70"/>
-      <c r="F136" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I136" s="22"/>
-      <c r="J136" s="76"/>
-      <c r="K136" s="57"/>
-      <c r="L136" s="22"/>
+      <c r="O135" s="22"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A136" s="67"/>
+      <c r="G136" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J136" s="22"/>
+      <c r="K136" s="73"/>
+      <c r="L136" s="54"/>
       <c r="M136" s="22"/>
       <c r="N136" s="22"/>
-    </row>
-    <row r="137" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A137" s="77"/>
-      <c r="B137" s="78"/>
-      <c r="C137" s="79"/>
-      <c r="D137" s="79"/>
-      <c r="E137" s="79"/>
-      <c r="F137" s="79"/>
-      <c r="G137" s="79"/>
-      <c r="H137" s="79"/>
-      <c r="I137" s="80"/>
-      <c r="J137" s="81"/>
-      <c r="K137" s="57"/>
-      <c r="L137" s="23"/>
+      <c r="O136" s="22"/>
+    </row>
+    <row r="137" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A137" s="74"/>
+      <c r="B137" s="75"/>
+      <c r="C137" s="75"/>
+      <c r="D137" s="76"/>
+      <c r="E137" s="76"/>
+      <c r="F137" s="76"/>
+      <c r="G137" s="76"/>
+      <c r="H137" s="76"/>
+      <c r="I137" s="76"/>
+      <c r="J137" s="77"/>
+      <c r="K137" s="78"/>
+      <c r="L137" s="54"/>
       <c r="M137" s="23"/>
       <c r="N137" s="23"/>
+      <c r="O137" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="J2:J4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="K2:K4"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
-    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="O2:O4"/>
     <mergeCell ref="J6:J8"/>
-    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="K6:K8"/>
     <mergeCell ref="M6:M8"/>
     <mergeCell ref="N6:N8"/>
-    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="O6:O8"/>
     <mergeCell ref="J9:J11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="K9:K11"/>
     <mergeCell ref="M9:M11"/>
     <mergeCell ref="N9:N11"/>
-    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="O9:O11"/>
     <mergeCell ref="J20:J22"/>
-    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="K20:K22"/>
     <mergeCell ref="M20:M22"/>
     <mergeCell ref="N20:N22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="J12:J15"/>
-    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="K12:K15"/>
     <mergeCell ref="M12:M15"/>
     <mergeCell ref="N12:N15"/>
-    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="O12:O15"/>
     <mergeCell ref="J16:J19"/>
-    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="K16:K19"/>
     <mergeCell ref="M16:M19"/>
     <mergeCell ref="N16:N19"/>
-    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="O16:O19"/>
     <mergeCell ref="J23:J25"/>
-    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="K23:K25"/>
     <mergeCell ref="M23:M25"/>
     <mergeCell ref="N23:N25"/>
-    <mergeCell ref="I28:I32"/>
+    <mergeCell ref="O23:O25"/>
     <mergeCell ref="J28:J32"/>
-    <mergeCell ref="L28:L32"/>
+    <mergeCell ref="K28:K32"/>
     <mergeCell ref="M28:M32"/>
     <mergeCell ref="N28:N32"/>
-    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="O28:O32"/>
     <mergeCell ref="J33:J36"/>
-    <mergeCell ref="L33:L36"/>
+    <mergeCell ref="K33:K36"/>
     <mergeCell ref="M33:M36"/>
     <mergeCell ref="N33:N36"/>
-    <mergeCell ref="I37:I42"/>
+    <mergeCell ref="O33:O36"/>
     <mergeCell ref="J37:J42"/>
-    <mergeCell ref="L37:L42"/>
+    <mergeCell ref="K37:K42"/>
     <mergeCell ref="M37:M42"/>
     <mergeCell ref="N37:N42"/>
-    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="O37:O42"/>
     <mergeCell ref="J43:J46"/>
-    <mergeCell ref="L43:L46"/>
+    <mergeCell ref="K43:K46"/>
     <mergeCell ref="M43:M46"/>
     <mergeCell ref="N43:N46"/>
-    <mergeCell ref="I47:I53"/>
+    <mergeCell ref="O43:O46"/>
     <mergeCell ref="J47:J53"/>
-    <mergeCell ref="L47:L53"/>
+    <mergeCell ref="K47:K53"/>
     <mergeCell ref="M47:M53"/>
     <mergeCell ref="N47:N53"/>
-    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="O47:O53"/>
     <mergeCell ref="J54:J56"/>
-    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="K54:K56"/>
     <mergeCell ref="M54:M56"/>
     <mergeCell ref="N54:N56"/>
-    <mergeCell ref="I57:I73"/>
+    <mergeCell ref="O54:O56"/>
     <mergeCell ref="J57:J73"/>
-    <mergeCell ref="L57:L73"/>
+    <mergeCell ref="K57:K73"/>
     <mergeCell ref="M57:M73"/>
     <mergeCell ref="N57:N73"/>
-    <mergeCell ref="I74:I78"/>
+    <mergeCell ref="O57:O73"/>
     <mergeCell ref="J74:J78"/>
-    <mergeCell ref="L74:L78"/>
+    <mergeCell ref="K74:K78"/>
     <mergeCell ref="M74:M78"/>
     <mergeCell ref="N74:N78"/>
-    <mergeCell ref="I80:I87"/>
+    <mergeCell ref="O74:O78"/>
     <mergeCell ref="J80:J87"/>
-    <mergeCell ref="L80:L87"/>
+    <mergeCell ref="K80:K87"/>
     <mergeCell ref="M80:M87"/>
     <mergeCell ref="N80:N87"/>
-    <mergeCell ref="I88:I96"/>
+    <mergeCell ref="O80:O87"/>
     <mergeCell ref="J88:J96"/>
-    <mergeCell ref="L88:L96"/>
+    <mergeCell ref="K88:K96"/>
     <mergeCell ref="M88:M96"/>
     <mergeCell ref="N88:N96"/>
-    <mergeCell ref="I97:I104"/>
+    <mergeCell ref="O88:O96"/>
     <mergeCell ref="J97:J104"/>
-    <mergeCell ref="L97:L104"/>
+    <mergeCell ref="K97:K104"/>
     <mergeCell ref="M97:M104"/>
     <mergeCell ref="N97:N104"/>
-    <mergeCell ref="J116:J132"/>
+    <mergeCell ref="O97:O104"/>
     <mergeCell ref="K116:K132"/>
     <mergeCell ref="L116:L132"/>
     <mergeCell ref="M116:M132"/>
-    <mergeCell ref="K105:K110"/>
+    <mergeCell ref="N116:N132"/>
     <mergeCell ref="L105:L110"/>
     <mergeCell ref="M105:M110"/>
-    <mergeCell ref="J111:J115"/>
+    <mergeCell ref="N105:N110"/>
     <mergeCell ref="K111:K115"/>
     <mergeCell ref="L111:L115"/>
     <mergeCell ref="M111:M115"/>
+    <mergeCell ref="N111:N115"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" xr:uid="{EAB5E5F2-D08C-4AB6-8DF9-561977F691C8}"/>
-    <hyperlink ref="D20" r:id="rId2" xr:uid="{6E2AAE10-25C0-4245-B588-A2ADE1A3FA27}"/>
+    <hyperlink ref="E9" r:id="rId1" xr:uid="{EAB5E5F2-D08C-4AB6-8DF9-561977F691C8}"/>
+    <hyperlink ref="E20" r:id="rId2" xr:uid="{6E2AAE10-25C0-4245-B588-A2ADE1A3FA27}"/>
+    <hyperlink ref="E43" r:id="rId3" display="https://it.impress.co.jp/articles/-/20392" xr:uid="{CC70850B-264F-460E-97FB-2B3920311E12}"/>
+    <hyperlink ref="E44" r:id="rId4" xr:uid="{04B2FCFE-F10C-4B0F-9020-2EADE307A32A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -8294,158 +8284,170 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="2.69921875" style="17" customWidth="1"/>
     <col min="3" max="3" width="30.69921875" style="17" customWidth="1"/>
-    <col min="4" max="16" width="15.69921875" style="17" customWidth="1"/>
-    <col min="17" max="16384" width="8.796875" style="17"/>
+    <col min="4" max="18" width="15.69921875" style="17" customWidth="1"/>
+    <col min="19" max="16384" width="8.796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C4" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C6" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C7" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C8" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C9" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="10" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="99" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" s="100"/>
+      <c r="F11" s="40" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="10" t="s">
+      <c r="G11" s="41"/>
+      <c r="H11" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="I11" s="41"/>
+      <c r="J11" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="K11" s="41"/>
+      <c r="L11" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="M11" s="41"/>
+      <c r="N11" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="O11" s="39"/>
+      <c r="P11" s="101" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="43" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" s="103" t="s">
+        <v>290</v>
+      </c>
+      <c r="F12" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="C4" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="C6" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="C7" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="C8" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="C9" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="10" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="N11" s="41"/>
-      <c r="O11" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="P11" s="46" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="K12" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="L12" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="M12" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="N12" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="O12" s="45"/>
-      <c r="P12" s="47"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="G12" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="O12" s="104" t="s">
+        <v>248</v>
+      </c>
+      <c r="P12" s="105" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q12" s="106" t="s">
+        <v>292</v>
+      </c>
+      <c r="R12" s="44"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B13" s="34">
         <v>1</v>
       </c>
@@ -8453,179 +8455,231 @@
         <v>7</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E13" s="35"/>
+        <v>237</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>293</v>
+      </c>
       <c r="F13" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="G13" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="35" t="s">
-        <v>236</v>
-      </c>
       <c r="H13" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="I13" s="35"/>
+        <v>229</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>246</v>
+      </c>
       <c r="J13" s="35"/>
-      <c r="K13" s="35" t="s">
+      <c r="K13" s="35"/>
+      <c r="L13" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="O13" s="38"/>
+      <c r="P13" s="107" t="s">
         <v>240</v>
       </c>
-      <c r="L13" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="N13" s="40"/>
-      <c r="O13" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="P13" s="36"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q13" s="110" t="s">
+        <v>302</v>
+      </c>
+      <c r="R13" s="36"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="M14" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32" t="s">
+      <c r="N14" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="O14" s="26"/>
+      <c r="P14" s="108" t="s">
         <v>241</v>
       </c>
-      <c r="L14" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="M14" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="N14" s="26"/>
-      <c r="O14" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="P14" s="29"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q14" s="111" t="s">
+        <v>303</v>
+      </c>
+      <c r="R14" s="29"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="32"/>
+        <v>239</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="I15" s="26"/>
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
       <c r="M15" s="32"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N15" s="32"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="29"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="32"/>
+      <c r="E16" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="I16" s="26"/>
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N16" s="32"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="29"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="29"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
+      <c r="E18" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>301</v>
+      </c>
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
+      <c r="I18" s="26"/>
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
       <c r="L18" s="32"/>
       <c r="M18" s="32"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N18" s="32"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="108"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="29"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
+      <c r="E19" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>301</v>
+      </c>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
+      <c r="I19" s="26"/>
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N19" s="32"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="29"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="112"/>
+      <c r="R20" s="31"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="32"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
@@ -8634,32 +8688,36 @@
       <c r="K21" s="32"/>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N21" s="32"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="29"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="108"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="29"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="32"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
@@ -8668,15 +8726,17 @@
       <c r="K23" s="32"/>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N23" s="32"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="108"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="29"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
-      <c r="E24" s="32"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
@@ -8685,32 +8745,36 @@
       <c r="K24" s="32"/>
       <c r="L24" s="32"/>
       <c r="M24" s="32"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N24" s="32"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="29"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="31"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="32"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
@@ -8719,32 +8783,36 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
       <c r="M26" s="32"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N26" s="32"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="108"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="29"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="29"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="32"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
@@ -8753,15 +8821,17 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
       <c r="M28" s="32"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N28" s="32"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="108"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="29"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
-      <c r="E29" s="32"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
@@ -8770,32 +8840,36 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
       <c r="M29" s="32"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N29" s="32"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="29"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="112"/>
+      <c r="R30" s="31"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
-      <c r="E31" s="32"/>
+      <c r="E31" s="26"/>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -8804,32 +8878,36 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
       <c r="M31" s="32"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N31" s="32"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="108"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="29"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="108"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="29"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
-      <c r="E33" s="32"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
@@ -8838,15 +8916,17 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
       <c r="M33" s="32"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N33" s="32"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="108"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="29"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
-      <c r="E34" s="32"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
@@ -8855,32 +8935,36 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
       <c r="M34" s="32"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N34" s="32"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="108"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="29"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="109"/>
+      <c r="Q35" s="112"/>
+      <c r="R35" s="31"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
-      <c r="E36" s="32"/>
+      <c r="E36" s="26"/>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
@@ -8889,32 +8973,36 @@
       <c r="K36" s="32"/>
       <c r="L36" s="32"/>
       <c r="M36" s="32"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N36" s="32"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="108"/>
+      <c r="Q36" s="111"/>
+      <c r="R36" s="29"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="108"/>
+      <c r="Q37" s="111"/>
+      <c r="R37" s="29"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
-      <c r="E38" s="32"/>
+      <c r="E38" s="26"/>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
@@ -8923,15 +9011,17 @@
       <c r="K38" s="32"/>
       <c r="L38" s="32"/>
       <c r="M38" s="32"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N38" s="32"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="108"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="29"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
-      <c r="E39" s="32"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
@@ -8940,32 +9030,36 @@
       <c r="K39" s="32"/>
       <c r="L39" s="32"/>
       <c r="M39" s="32"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N39" s="32"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="108"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="29"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="109"/>
+      <c r="Q40" s="112"/>
+      <c r="R40" s="31"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
-      <c r="E41" s="32"/>
+      <c r="E41" s="26"/>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
@@ -8974,32 +9068,36 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
       <c r="M41" s="32"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N41" s="32"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="108"/>
+      <c r="Q41" s="111"/>
+      <c r="R41" s="29"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="108"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="29"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
-      <c r="E43" s="32"/>
+      <c r="E43" s="26"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
@@ -9008,15 +9106,17 @@
       <c r="K43" s="32"/>
       <c r="L43" s="32"/>
       <c r="M43" s="32"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N43" s="32"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="108"/>
+      <c r="Q43" s="111"/>
+      <c r="R43" s="29"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
-      <c r="E44" s="32"/>
+      <c r="E44" s="26"/>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
@@ -9025,32 +9125,36 @@
       <c r="K44" s="32"/>
       <c r="L44" s="32"/>
       <c r="M44" s="32"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="N44" s="32"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="111"/>
+      <c r="R44" s="29"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="109"/>
+      <c r="Q45" s="112"/>
+      <c r="R45" s="31"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
-      <c r="E46" s="32"/>
+      <c r="E46" s="26"/>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
@@ -9059,26 +9163,87 @@
       <c r="K46" s="32"/>
       <c r="L46" s="32"/>
       <c r="M46" s="32"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="108"/>
+      <c r="Q46" s="111"/>
+      <c r="R46" s="29"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="108"/>
+      <c r="Q47" s="111"/>
+      <c r="R47" s="29"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="108"/>
+      <c r="Q48" s="111"/>
+      <c r="R48" s="29"/>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="108"/>
+      <c r="Q49" s="111"/>
+      <c r="R49" s="29"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="109"/>
+      <c r="Q50" s="112"/>
+      <c r="R50" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
